--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.97</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.61</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +1984,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2255,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2286,14 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2302,14 +2345,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2318,14 +2383,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.97</v>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2334,14 +2421,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.61</v>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2350,13 +2459,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2502,7 +2503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,17 +2514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2533,14 +2554,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2549,14 +2592,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2565,14 +2630,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.96</v>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2581,14 +2668,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.97</v>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2597,14 +2706,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.61</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
@@ -2613,13 +2860,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.61</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>广发美国房地产指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0891</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -699,27 +716,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>广发美国房地产指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0891</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -737,27 +754,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -775,27 +792,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -813,30 +830,106 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>嘉实全球房地产（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -912,22 +1005,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.0891</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -950,22 +1043,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.0891</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -988,26 +1081,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.0609</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1016,36 +1109,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1054,36 +1147,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>95.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1092,6 +1185,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1887,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2209,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2569,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/PSA-公共存储公司.xlsx
+++ b/数据整理/stocks/其他/PSA-公共存储公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.61</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,356 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +1022,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.0686</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +1060,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.0686</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +1098,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +1136,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,26 +1174,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -878,17 +1217,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -916,17 +1255,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -944,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,27 +1339,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>广发美国房地产指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0891</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1038,27 +1377,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>广发美国房地产指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0891</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1076,27 +1415,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1114,27 +1453,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1152,30 +1491,106 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>嘉实全球房地产（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1251,22 +1666,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.0891</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1289,22 +1704,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.0891</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1327,26 +1742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.0609</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1355,36 +1770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>070031</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实全球房地产(QDII)</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1393,36 +1808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160141</t>
+          <t>070031</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>嘉实全球房地产(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>95.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1431,6 +1846,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1866,7 +2527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2226,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2548,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2906,326 +3567,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1200</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1200</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1200</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>